--- a/Gsport/Gsport/FitxersImport/Equips.xlsx
+++ b/Gsport/Gsport/FitxersImport/Equips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>nom</t>
   </si>
@@ -31,9 +31,6 @@
     <t>id_entrenador</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Alevi A</t>
   </si>
   <si>
@@ -56,6 +53,27 @@
   </si>
   <si>
     <t>Pre-Benjami B</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
 </sst>
 </file>
@@ -466,7 +484,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -497,7 +515,7 @@
     </row>
     <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="10">
         <v>3</v>
@@ -506,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -514,7 +532,7 @@
     </row>
     <row r="3" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -523,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -531,7 +549,7 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -540,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
@@ -548,7 +566,7 @@
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="10">
         <v>3</v>
@@ -557,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7">
         <v>3</v>
@@ -565,7 +583,7 @@
     </row>
     <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="10">
         <v>3</v>
@@ -574,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7">
         <v>4</v>
@@ -582,7 +600,7 @@
     </row>
     <row r="7" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="10">
         <v>4</v>
@@ -591,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7">
         <v>5</v>
@@ -599,7 +617,7 @@
     </row>
     <row r="8" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="10">
         <v>4</v>
@@ -608,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7">
         <v>6</v>
@@ -616,7 +634,7 @@
     </row>
     <row r="9" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
@@ -625,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E9" s="7">
         <v>7</v>

--- a/Gsport/Gsport/FitxersImport/Equips.xlsx
+++ b/Gsport/Gsport/FitxersImport/Equips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>nom</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>Cadet A</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -177,6 +180,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -484,7 +490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -603,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="10">
         <v>3</v>
@@ -620,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="10">
         <v>4</v>
@@ -650,11 +656,21 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>

--- a/Gsport/Gsport/FitxersImport/Equips.xlsx
+++ b/Gsport/Gsport/FitxersImport/Equips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>nom</t>
   </si>
@@ -31,52 +31,28 @@
     <t>id_entrenador</t>
   </si>
   <si>
-    <t>Alevi A</t>
-  </si>
-  <si>
-    <t>Alevi B</t>
-  </si>
-  <si>
     <t>Pre-benjami A</t>
   </si>
   <si>
     <t>Benjami B</t>
   </si>
   <si>
-    <t>Benjami A</t>
-  </si>
-  <si>
-    <t>Infantil A</t>
-  </si>
-  <si>
-    <t>Infantil B</t>
-  </si>
-  <si>
-    <t>Pre-Benjami B</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>Cadet A</t>
+    <t>Alevi</t>
+  </si>
+  <si>
+    <t>Femeni</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -94,16 +70,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -145,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -183,6 +162,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -488,9 +470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -520,8 +502,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="10">
         <v>3</v>
@@ -529,16 +511,16 @@
       <c r="C2" s="10">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>13</v>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>6</v>
+      <c r="A3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -546,8 +528,8 @@
       <c r="C3" s="10">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -555,7 +537,7 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -563,8 +545,8 @@
       <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
@@ -572,7 +554,7 @@
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="10">
         <v>3</v>
@@ -580,97 +562,47 @@
       <c r="C5" s="10">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4</v>
-      </c>
+      <c r="A6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="10">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5</v>
-      </c>
+      <c r="A7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7">
-        <v>6</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7">
-        <v>7</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2">
-        <v>6</v>
-      </c>
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>

--- a/Gsport/Gsport/FitxersImport/Equips.xlsx
+++ b/Gsport/Gsport/FitxersImport/Equips.xlsx
@@ -37,22 +37,22 @@
     <t>Benjami B</t>
   </si>
   <si>
+    <t>Alevi</t>
+  </si>
+  <si>
+    <t>Femeni</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Alevi</t>
-  </si>
-  <si>
-    <t>Femeni</t>
-  </si>
-  <si>
-    <t>21</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
@@ -503,7 +503,7 @@
     </row>
     <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="10">
         <v>3</v>
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="3" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -529,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
